--- a/vivareal_incompleto/imovel.xlsx
+++ b/vivareal_incompleto/imovel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,20 +476,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Variaveis</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>Setor</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Setor</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tipo do Imóvel</t>
         </is>
